--- a/PyCitySchools/Analysis/School_Analysis.xlsx
+++ b/PyCitySchools/Analysis/School_Analysis.xlsx
@@ -5,29 +5,25 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreaaurrecoecheadiaz/Desktop/Week_4/pandas-challenge/PyCitySchools/Analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreaaurrecoecheadiaz/Desktop/Week_4/Challenge_4/pandas-challenge/PyCitySchools/Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E61E857-8DA5-DE43-AE86-DF7C799C69FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8281B2E9-A9B8-704D-AA4B-7E7D44671E66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31260" yWindow="1300" windowWidth="28800" windowHeight="16540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="per size" sheetId="2" r:id="rId2"/>
-    <sheet name="per spenditure" sheetId="3" r:id="rId3"/>
+    <sheet name="Analysis " sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="per size" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'per spenditure'!$A$48:$B$48</definedName>
-    <definedName name="_xlchart.v2.0" hidden="1">'per spenditure'!$A$75:$A$78</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">'per spenditure'!$B$74</definedName>
-    <definedName name="_xlchart.v2.2" hidden="1">'per spenditure'!$B$75:$B$78</definedName>
-    <definedName name="_xlchart.v2.3" hidden="1">'per spenditure'!$C$74</definedName>
-    <definedName name="_xlchart.v2.4" hidden="1">'per spenditure'!$C$75:$C$78</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Analysis '!$A$34:$B$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$L$16</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="9" r:id="rId4"/>
+    <pivotCache cacheId="13" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -361,12 +357,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -378,36 +373,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -429,6 +412,1142 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Average of % Overall Passing by budget</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> per student</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Analysis '!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average of % Overall Passing</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Analysis '!$A$14:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>$585-630</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>&lt;$585</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>$630-645</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>$645-680</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Analysis '!$B$14:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>79.876293265000314</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>76.721458239474131</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>71.004976917668031</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>66.756253069446544</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C235-3D4E-A6AF-88E104891A0B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="404081040"/>
+        <c:axId val="404260864"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="404081040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="404260864"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="404260864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="404081040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Average of</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Reading  and Maths  Scores by Type of School</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Analysis '!$A$126</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Government</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Analysis '!$B$125:$C$125</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Average of Average Maths Score</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Average of Average Reading Score</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Analysis '!$B$126:$C$126</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>69.834806378249354</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>69.675928632252507</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-65C3-7A4A-A83E-4C5267931618}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Analysis '!$A$127</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Independent</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Analysis '!$B$125:$C$125</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Average of Average Maths Score</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Average of Average Reading Score</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Analysis '!$B$127:$C$127</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>71.368821767748898</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70.718932665586465</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-65C3-7A4A-A83E-4C5267931618}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="420142687"/>
+        <c:axId val="419782847"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="420142687"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="419782847"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="419782847"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="420142687"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Average Reading </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> and Maths  scores by spenditure</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16807785888077859"/>
+          <c:y val="1.834862385321101E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Analysis '!$B$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average of Average Maths Score</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Analysis '!$A$61:$A$64</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>&lt;$585</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>$585-630</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>$630-645</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>$645-680</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Analysis '!$B$61:$B$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>71.364586622066668</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72.065867542063245</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>69.854807345723643</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>68.884390916774166</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FB9E-A64A-91FA-8895214E0A87}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Analysis '!$C$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average of Average Reading Score</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Analysis '!$A$61:$A$64</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>&lt;$585</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>$585-630</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>$630-645</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>$645-680</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Analysis '!$C$61:$C$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>70.716577175176738</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>71.031296932066297</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>69.838813895073599</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>69.045403247064201</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FB9E-A64A-91FA-8895214E0A87}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="224827343"/>
+        <c:axId val="372612304"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="224827343"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="372612304"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="372612304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="224827343"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-GB"/>
@@ -708,1112 +1827,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'per spenditure'!$B$27</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Average of % Overall Passing</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'per spenditure'!$A$28:$A$31</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>$585-630</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>&lt;$585</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>$630-645</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>$645-680</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'per spenditure'!$B$28:$B$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>79.876293265000314</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>76.721458239474131</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>71.004976917668031</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>66.756253069446544</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C235-3D4E-A6AF-88E104891A0B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="182"/>
-        <c:axId val="404081040"/>
-        <c:axId val="404260864"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="404081040"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="404260864"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="404260864"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="404081040"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Average of</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> R and M Scores by Type of School</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-GB"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'per spenditure'!$A$140</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Government</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'per spenditure'!$B$139:$C$139</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Average of Average Maths Score</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Average of Average Reading Score</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'per spenditure'!$B$140:$C$140</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>69.834806378249354</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>69.675928632252507</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-65C3-7A4A-A83E-4C5267931618}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'per spenditure'!$A$141</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Independent</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'per spenditure'!$B$139:$C$139</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Average of Average Maths Score</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Average of Average Reading Score</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'per spenditure'!$B$141:$C$141</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>71.368821767748898</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>70.718932665586465</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-65C3-7A4A-A83E-4C5267931618}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="182"/>
-        <c:axId val="420142687"/>
-        <c:axId val="419782847"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="420142687"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="419782847"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="419782847"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="420142687"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Average R</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> and M scores by spenditure</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-GB"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="6.2235897199067122E-2"/>
-          <c:y val="0"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'per spenditure'!$B$74</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Average of Average Maths Score</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'per spenditure'!$A$75:$A$78</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>&lt;$585</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>$585-630</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>$630-645</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>$645-680</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'per spenditure'!$B$75:$B$78</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>71.364586622066668</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>72.065867542063245</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>69.854807345723643</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>68.884390916774166</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FB9E-A64A-91FA-8895214E0A87}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'per spenditure'!$C$74</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Average of Average Reading Score</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'per spenditure'!$A$75:$A$78</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>&lt;$585</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>$585-630</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>$630-645</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>$645-680</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'per spenditure'!$C$75:$C$78</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>70.716577175176738</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>71.031296932066297</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>69.838813895073599</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>69.045403247064201</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-FB9E-A64A-91FA-8895214E0A87}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="182"/>
-        <c:axId val="224827343"/>
-        <c:axId val="372612304"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="224827343"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="372612304"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="372612304"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="224827343"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -4000,6 +4013,119 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>298450</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74782669-F5E2-7FA4-B706-AFF3BB0E6C51}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1460500</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{851405F0-58F1-573F-5453-7D809DA98D66}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3123549B-BEA0-17C5-8A52-2DF4DCF64FBA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
@@ -4027,119 +4153,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>298450</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74782669-F5E2-7FA4-B706-AFF3BB0E6C51}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>134</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>1130300</xdr:colOff>
-      <xdr:row>154</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{851405F0-58F1-573F-5453-7D809DA98D66}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>749300</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3123549B-BEA0-17C5-8A52-2DF4DCF64FBA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4461,82 +4474,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3938CD09-33D4-034F-9285-F74C5CA149CB}" name="PivotTable2" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="12">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="6">
-        <item x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="10"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of % Overall Passing" fld="9" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DAE68208-5B25-2E40-BEA3-D39B028AC91F}" name="PivotTable3" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DAE68208-5B25-2E40-BEA3-D39B028AC91F}" name="PivotTable3" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:F10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
@@ -4641,6 +4579,81 @@
   </colItems>
   <dataFields count="1">
     <dataField name="Count of Spending Ranges (Per Student)" fld="10" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3938CD09-33D4-034F-9285-F74C5CA149CB}" name="PivotTable2" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="12">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="10"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of % Overall Passing" fld="9" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -4938,11 +4951,1108 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBD51684-74C4-6049-9734-6FFDEAC5F519}">
+  <dimension ref="A3:G140"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.83203125" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="36.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13">
+        <f>AVERAGE(B14:B17)</f>
+        <v>73.589745372897255</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14">
+        <v>79.876293265000314</v>
+      </c>
+      <c r="C14">
+        <f>(B14-G13)/G15</f>
+        <v>1.0744223735294862</v>
+      </c>
+      <c r="F14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14">
+        <f>MEDIAN(B14:B17)</f>
+        <v>73.863217578571081</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15">
+        <v>76.721458239474131</v>
+      </c>
+      <c r="C15">
+        <f>(B15-G13)/G15</f>
+        <v>0.53523530386956575</v>
+      </c>
+      <c r="F15" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15">
+        <f>_xlfn.STDEV.S(B14:B17)</f>
+        <v>5.8510954788215157</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>71.004976917668031</v>
+      </c>
+      <c r="C16">
+        <f>(B16-G13)-G15</f>
+        <v>-8.4358639340507402</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <v>66.756253069446544</v>
+      </c>
+      <c r="C17">
+        <f>(B17-G13)/G15</f>
+        <v>-1.1678996400221215</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" s="2">
+        <v>79.06634791880694</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" s="2">
+        <v>78.039784885002675</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" s="2">
+        <v>70.293506579285278</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B41" s="2">
+        <v>72.335747880829842</v>
+      </c>
+      <c r="C41" s="2">
+        <v>71.63686357948653</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B42" s="2">
+        <v>71.421650104450009</v>
+      </c>
+      <c r="C42" s="2">
+        <v>70.720163565513431</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43" s="2">
+        <v>69.751809063228364</v>
+      </c>
+      <c r="C43" s="2">
+        <v>69.576052095489857</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B44">
+        <f>AVERAGE(B41:B43)</f>
+        <v>71.169735682836077</v>
+      </c>
+      <c r="C44">
+        <f>AVERAGE(C41:C43)</f>
+        <v>70.644359746829934</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B45">
+        <f>MEDIAN(B41:B43)</f>
+        <v>71.421650104450009</v>
+      </c>
+      <c r="C45">
+        <f>MEDIAN(C41:C43)</f>
+        <v>70.720163565513431</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B46">
+        <f>_xlfn.STDEV.S(B41:B43)</f>
+        <v>1.3102597491107419</v>
+      </c>
+      <c r="C46">
+        <f>_xlfn.STDEV.S(C41:C43)</f>
+        <v>1.0324948703690455</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B50" s="2">
+        <f>(B41-B44)/B46</f>
+        <v>0.88990919455865491</v>
+      </c>
+      <c r="C50" s="2">
+        <f>(C41-C44)/C46</f>
+        <v>0.96126756765565713</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B51" s="2">
+        <f>(B42-B44)/B46</f>
+        <v>0.19226296296204154</v>
+      </c>
+      <c r="C51" s="2">
+        <f>(C42-C44)/C46</f>
+        <v>7.3418106819651302E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B52" s="2">
+        <f>(B43-B44)/B46</f>
+        <v>-1.0821721575207073</v>
+      </c>
+      <c r="C52" s="2">
+        <f>(C43-C44)/C46</f>
+        <v>-1.0346856744752946</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A60" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B60" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C60" s="19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B61" s="2">
+        <v>71.364586622066668</v>
+      </c>
+      <c r="C61" s="2">
+        <v>70.716577175176738</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B62" s="2">
+        <v>72.065867542063245</v>
+      </c>
+      <c r="C62" s="2">
+        <v>71.031296932066297</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B63" s="2">
+        <v>69.854807345723643</v>
+      </c>
+      <c r="C63" s="2">
+        <v>69.838813895073599</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B64" s="2">
+        <v>68.884390916774166</v>
+      </c>
+      <c r="C64" s="2">
+        <v>69.045403247064201</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B65">
+        <f>AVERAGE(B61:B64)</f>
+        <v>70.542413106656937</v>
+      </c>
+      <c r="C65">
+        <f>AVERAGE(C61:C64)</f>
+        <v>70.158022812345209</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B66">
+        <f>MEDIAN(B61:B64)</f>
+        <v>70.609696983895162</v>
+      </c>
+      <c r="C66">
+        <f>MEDIAN(C61:C64)</f>
+        <v>70.277695535125162</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B67">
+        <f>_xlfn.STDEV.S(B61:B64)</f>
+        <v>1.4397594672736904</v>
+      </c>
+      <c r="C67">
+        <f>_xlfn.STDEV.S(C61:C64)</f>
+        <v>0.89710781483695146</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A71" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B71" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C71" s="19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B72" s="2">
+        <f>(B61-B65)/B67</f>
+        <v>0.57104921627401228</v>
+      </c>
+      <c r="C72" s="2">
+        <f>(C61-C65)/C67</f>
+        <v>0.62261676199203109</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B73" s="2">
+        <f>(B62-B65)/B67</f>
+        <v>1.058131215689174</v>
+      </c>
+      <c r="C73" s="2">
+        <f>(C62-C65)/C67</f>
+        <v>0.97343274161512605</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B74" s="2">
+        <f>(B63-B65)/B67</f>
+        <v>-0.47758377462544893</v>
+      </c>
+      <c r="C74" s="2">
+        <f>(C63-C65)/C67</f>
+        <v>-0.35582001627042503</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B75" s="2">
+        <f>(B64-B65)/B67</f>
+        <v>-1.151596657337757</v>
+      </c>
+      <c r="C75" s="2">
+        <f>(C64-C65)/C67</f>
+        <v>-1.2402294873367321</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B82" s="2">
+        <v>88.835926265726002</v>
+      </c>
+      <c r="C82" s="2">
+        <v>86.390517470923953</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B83" s="2">
+        <v>91.518823869945564</v>
+      </c>
+      <c r="C83" s="2">
+        <v>87.292422908065191</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B84" s="2">
+        <v>84.68613874124722</v>
+      </c>
+      <c r="C84" s="2">
+        <v>83.763584577383114</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B85" s="2">
+        <v>81.568470482107614</v>
+      </c>
+      <c r="C85" s="2">
+        <v>81.769715583024052</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B86">
+        <f>AVERAGE(B82:B85)</f>
+        <v>86.652339839756593</v>
+      </c>
+      <c r="C86">
+        <f>AVERAGE(C82:C85)</f>
+        <v>84.804060134849081</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B87">
+        <f>MEDIAN(B82:B85)</f>
+        <v>86.761032503486604</v>
+      </c>
+      <c r="C87">
+        <f>MEDIAN(C82:C85)</f>
+        <v>85.077051024153533</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B88">
+        <f>_xlfn.STDEV.S(B82:B85)</f>
+        <v>4.4031197614564102</v>
+      </c>
+      <c r="C88">
+        <f>_xlfn.STDEV.S(C82:C85)</f>
+        <v>2.5165209062770177</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B90">
+        <f>(B83-B86)/B88</f>
+        <v>1.1052354452832995</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B94" s="2">
+        <v>84.252804366493606</v>
+      </c>
+      <c r="C94" s="2">
+        <v>83.301184562791605</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B95" s="2">
+        <v>89.846559589859751</v>
+      </c>
+      <c r="C95" s="2">
+        <v>86.714148663571478</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B96" s="2">
+        <v>90.806867036375223</v>
+      </c>
+      <c r="C96" s="2">
+        <v>87.557513377185501</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B97">
+        <f>AVERAGE(B94:B96)</f>
+        <v>88.302076997576194</v>
+      </c>
+      <c r="C97">
+        <f>AVERAGE(C94:C96)</f>
+        <v>85.857615534516185</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B98">
+        <f>MEDIAN(B94:B96)</f>
+        <v>89.846559589859751</v>
+      </c>
+      <c r="C98">
+        <f>MEDIAN(C94:C96)</f>
+        <v>86.714148663571478</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B99">
+        <f>_xlfn.STDEV.S(B94:B96)</f>
+        <v>3.5394920862440338</v>
+      </c>
+      <c r="C99">
+        <f>_xlfn.STDEV.S(C94:C96)</f>
+        <v>2.2537347880655489</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B103" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C103" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D103" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B104" s="2">
+        <v>0</v>
+      </c>
+      <c r="C104" s="2">
+        <v>4</v>
+      </c>
+      <c r="D104" s="2">
+        <f>SUM(B104:C104)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B105" s="2">
+        <v>1</v>
+      </c>
+      <c r="C105" s="2">
+        <v>3</v>
+      </c>
+      <c r="D105" s="2">
+        <f t="shared" ref="D105:D107" si="0">SUM(B105:C105)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B106" s="2">
+        <v>3</v>
+      </c>
+      <c r="C106" s="2">
+        <v>1</v>
+      </c>
+      <c r="D106" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B107" s="2">
+        <v>3</v>
+      </c>
+      <c r="C107" s="2">
+        <v>0</v>
+      </c>
+      <c r="D107" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B108">
+        <f>SUM(B104:B107)</f>
+        <v>7</v>
+      </c>
+      <c r="C108">
+        <f>SUM(C104:C107)</f>
+        <v>8</v>
+      </c>
+      <c r="D108">
+        <f>SUM(D104:D107)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B110" s="2">
+        <v>8</v>
+      </c>
+      <c r="C110" s="15">
+        <f>B110/15</f>
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B111" s="2">
+        <v>7</v>
+      </c>
+      <c r="C111" s="15">
+        <f>B111/15</f>
+        <v>0.46666666666666667</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" s="2"/>
+      <c r="B113" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B114" s="15">
+        <v>0</v>
+      </c>
+      <c r="C114" s="15">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B115" s="15">
+        <f>B105/B108</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="C115" s="15">
+        <f>C105/C108</f>
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B116" s="15">
+        <f>B106/B108</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="C116" s="15">
+        <f>C106/C108</f>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B117" s="15">
+        <f>B107/B108</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="C117" s="15">
+        <f>C107/C108</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D119" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B120">
+        <v>70.698992814221029</v>
+      </c>
+      <c r="C120">
+        <v>83.587562408787065</v>
+      </c>
+      <c r="D120">
+        <v>84.462375254967725</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B121">
+        <v>76.973340399670292</v>
+      </c>
+      <c r="C121">
+        <v>86.247788714131488</v>
+      </c>
+      <c r="D121">
+        <v>89.204042521152999</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B126" s="2">
+        <v>69.834806378249354</v>
+      </c>
+      <c r="C126" s="2">
+        <v>69.675928632252507</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B127" s="2">
+        <v>71.368821767748898</v>
+      </c>
+      <c r="C127" s="2">
+        <v>70.718932665586465</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>54</v>
+      </c>
+      <c r="B128">
+        <f>AVERAGE(B126:B127)</f>
+        <v>70.601814072999133</v>
+      </c>
+      <c r="C128">
+        <f>AVERAGE(C126:C127)</f>
+        <v>70.197430648919493</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>57</v>
+      </c>
+      <c r="B129">
+        <f>MEDIAN(B126:B127)</f>
+        <v>70.601814072999133</v>
+      </c>
+      <c r="C129">
+        <f>MEDIAN(C126:C127)</f>
+        <v>70.197430648919493</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>64</v>
+      </c>
+      <c r="B130">
+        <f>_xlfn.STDEV.S(B126:B127)</f>
+        <v>1.0847126843596504</v>
+      </c>
+      <c r="C130">
+        <f>_xlfn.STDEV.S(C126:C127)</f>
+        <v>0.73751522477536124</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A132" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B132" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C132" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A133" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B133" s="2">
+        <f>(B126-B128)/B130</f>
+        <v>-0.70710678118655412</v>
+      </c>
+      <c r="C133" s="2">
+        <f>(C126-C128)/C130</f>
+        <v>-0.70710678118655723</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A134" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B134" s="2">
+        <f>(B127-B128)/B130</f>
+        <v>0.70710678118654102</v>
+      </c>
+      <c r="C134" s="2">
+        <f>(C127-C128)/C130</f>
+        <v>0.70710678118653791</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A137" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C137" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A138" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B138" s="2">
+        <v>7</v>
+      </c>
+      <c r="C138" s="2">
+        <v>1</v>
+      </c>
+      <c r="D138" s="14">
+        <f>B138/8</f>
+        <v>0.875</v>
+      </c>
+      <c r="E138" s="14">
+        <f>C138/8</f>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A139" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B139" s="2">
+        <v>0</v>
+      </c>
+      <c r="C139" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A140" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B140" s="2">
+        <v>0</v>
+      </c>
+      <c r="C140" s="2">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A34:B34" xr:uid="{FBD51684-74C4-6049-9734-6FFDEAC5F519}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A35:B37">
+      <sortCondition descending="1" ref="B34:B37"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5001,580 +6111,590 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="3">
-        <v>2917</v>
-      </c>
-      <c r="D2" s="4">
-        <v>1910635</v>
-      </c>
-      <c r="E2" s="3">
-        <v>655</v>
-      </c>
-      <c r="F2" s="3">
-        <v>68.935207404868009</v>
-      </c>
-      <c r="G2" s="3">
-        <v>68.910524511484397</v>
-      </c>
-      <c r="H2" s="3">
-        <v>81.693520740486804</v>
-      </c>
-      <c r="I2" s="3">
-        <v>81.453548165923891</v>
-      </c>
-      <c r="J2" s="3">
-        <v>66.712375728488169</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" s="3" t="s">
+      <c r="C2" s="2">
+        <v>4976</v>
+      </c>
+      <c r="D2" s="3">
+        <v>3124928</v>
+      </c>
+      <c r="E2" s="2">
+        <v>628</v>
+      </c>
+      <c r="F2" s="2">
+        <v>72.352893890675247</v>
+      </c>
+      <c r="G2" s="2">
+        <v>71.008842443729904</v>
+      </c>
+      <c r="H2" s="2">
+        <v>91.639871382636656</v>
+      </c>
+      <c r="I2" s="2">
+        <v>87.379421221864945</v>
+      </c>
+      <c r="J2" s="2">
+        <v>80.084405144694543</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="3">
-        <v>2949</v>
-      </c>
-      <c r="D3" s="4">
-        <v>1884411</v>
-      </c>
-      <c r="E3" s="3">
-        <v>639</v>
-      </c>
-      <c r="F3" s="3">
-        <v>68.69854187860291</v>
-      </c>
-      <c r="G3" s="3">
-        <v>69.077992539844018</v>
-      </c>
-      <c r="H3" s="3">
-        <v>81.654798236690411</v>
-      </c>
-      <c r="I3" s="3">
-        <v>82.807731434384536</v>
-      </c>
-      <c r="J3" s="3">
-        <v>67.650050864699892</v>
-      </c>
-      <c r="K3" s="3" t="s">
+      <c r="C3" s="2">
+        <v>3999</v>
+      </c>
+      <c r="D3" s="3">
+        <v>2547363</v>
+      </c>
+      <c r="E3" s="2">
+        <v>637</v>
+      </c>
+      <c r="F3" s="2">
+        <v>72.047761940485117</v>
+      </c>
+      <c r="G3" s="2">
+        <v>70.935983995998996</v>
+      </c>
+      <c r="H3" s="2">
+        <v>90.797699424856219</v>
+      </c>
+      <c r="I3" s="2">
+        <v>87.396849212303067</v>
+      </c>
+      <c r="J3" s="2">
+        <v>79.419854963740931</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>1761</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>1056600</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>600</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>72.034071550255533</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <v>70.257808063600223</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="2">
         <v>91.53889835320841</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="2">
         <v>86.712095400340715</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="2">
         <v>78.87563884156728</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="3">
-        <v>4635</v>
-      </c>
-      <c r="D5" s="4">
-        <v>3022020</v>
-      </c>
-      <c r="E5" s="3">
-        <v>652</v>
-      </c>
-      <c r="F5" s="3">
-        <v>68.874865156418551</v>
-      </c>
-      <c r="G5" s="3">
-        <v>69.186407766990285</v>
-      </c>
-      <c r="H5" s="3">
-        <v>80.949298813376487</v>
-      </c>
-      <c r="I5" s="3">
-        <v>81.877022653721681</v>
-      </c>
-      <c r="J5" s="3">
-        <v>66.364617044228694</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L5" s="3" t="s">
+      <c r="C5" s="2">
+        <v>2949</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1884411</v>
+      </c>
+      <c r="E5" s="2">
+        <v>639</v>
+      </c>
+      <c r="F5" s="2">
+        <v>68.69854187860291</v>
+      </c>
+      <c r="G5" s="2">
+        <v>69.077992539844018</v>
+      </c>
+      <c r="H5" s="2">
+        <v>81.654798236690411</v>
+      </c>
+      <c r="I5" s="2">
+        <v>82.807731434384536</v>
+      </c>
+      <c r="J5" s="2">
+        <v>67.650050864699892</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>1468</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>917500</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>625</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <v>71.788147138964575</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="2">
         <v>71.245231607629421</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="2">
         <v>91.212534059945511</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="2">
         <v>88.487738419618537</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="2">
         <v>81.335149863760208</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="3">
-        <v>2283</v>
-      </c>
-      <c r="D7" s="4">
-        <v>1319574</v>
-      </c>
-      <c r="E7" s="3">
-        <v>578</v>
-      </c>
-      <c r="F7" s="3">
-        <v>69.170827858081466</v>
-      </c>
-      <c r="G7" s="3">
-        <v>68.87691633815156</v>
-      </c>
-      <c r="H7" s="3">
-        <v>82.785808147174762</v>
-      </c>
-      <c r="I7" s="3">
-        <v>81.296539640823468</v>
-      </c>
-      <c r="J7" s="3">
-        <v>67.455102934734995</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="L7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2739</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1763916</v>
+      </c>
+      <c r="E7" s="2">
+        <v>644</v>
+      </c>
+      <c r="F7" s="2">
+        <v>69.091274187659735</v>
+      </c>
+      <c r="G7" s="2">
+        <v>69.572471705001831</v>
+      </c>
+      <c r="H7" s="2">
+        <v>82.438846294267975</v>
+      </c>
+      <c r="I7" s="2">
+        <v>82.219788243884622</v>
+      </c>
+      <c r="J7" s="2">
+        <v>67.46987951807229</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>1858</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>1081356</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>582</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <v>71.657158234660926</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="2">
         <v>71.359526372443483</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="2">
         <v>90.850376749192691</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="2">
         <v>89.074273412271253</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="2">
         <v>80.785791173304631</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="L8" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="3">
-        <v>4976</v>
-      </c>
-      <c r="D9" s="4">
-        <v>3124928</v>
-      </c>
-      <c r="E9" s="3">
-        <v>628</v>
-      </c>
-      <c r="F9" s="3">
-        <v>72.352893890675247</v>
-      </c>
-      <c r="G9" s="3">
-        <v>71.008842443729904</v>
-      </c>
-      <c r="H9" s="3">
-        <v>91.639871382636656</v>
-      </c>
-      <c r="I9" s="3">
-        <v>87.379421221864945</v>
-      </c>
-      <c r="J9" s="3">
-        <v>80.084405144694543</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2283</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1319574</v>
+      </c>
+      <c r="E9" s="2">
+        <v>578</v>
+      </c>
+      <c r="F9" s="2">
+        <v>69.170827858081466</v>
+      </c>
+      <c r="G9" s="2">
+        <v>68.87691633815156</v>
+      </c>
+      <c r="H9" s="2">
+        <v>82.785808147174762</v>
+      </c>
+      <c r="I9" s="2">
+        <v>81.296539640823468</v>
+      </c>
+      <c r="J9" s="2">
+        <v>67.455102934734995</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L9" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>427</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>248087</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>581</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2">
         <v>72.583138173302103</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="2">
         <v>71.660421545667447</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="2">
         <v>89.929742388758783</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="2">
         <v>88.52459016393442</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="2">
         <v>78.922716627634657</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="L10" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>962</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>585858</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>609</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <v>72.088357588357582</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="2">
         <v>71.613305613305613</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="2">
         <v>91.683991683991678</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="2">
         <v>86.590436590436596</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="2">
         <v>79.20997920997921</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="K11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="L11" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>1800</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>1049400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <v>583</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="2">
         <v>72.047222222222217</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="2">
         <v>70.969444444444449</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="2">
         <v>91.777777777777786</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="2">
         <v>86.666666666666671</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="2">
         <v>79.722222222222229</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="K12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L12" s="3" t="s">
+      <c r="L12" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="3">
-        <v>3999</v>
-      </c>
-      <c r="D13" s="4">
-        <v>2547363</v>
-      </c>
-      <c r="E13" s="3">
-        <v>637</v>
-      </c>
-      <c r="F13" s="3">
-        <v>72.047761940485117</v>
-      </c>
-      <c r="G13" s="3">
-        <v>70.935983995998996</v>
-      </c>
-      <c r="H13" s="3">
-        <v>90.797699424856219</v>
-      </c>
-      <c r="I13" s="3">
-        <v>87.396849212303067</v>
-      </c>
-      <c r="J13" s="3">
-        <v>79.419854963740931</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L13" s="3" t="s">
+      <c r="C13" s="2">
+        <v>4761</v>
+      </c>
+      <c r="D13" s="3">
+        <v>3094650</v>
+      </c>
+      <c r="E13" s="2">
+        <v>650</v>
+      </c>
+      <c r="F13" s="2">
+        <v>68.843100189035923</v>
+      </c>
+      <c r="G13" s="2">
+        <v>69.039277462717919</v>
+      </c>
+      <c r="H13" s="2">
+        <v>82.062591892459565</v>
+      </c>
+      <c r="I13" s="2">
+        <v>81.978575929426583</v>
+      </c>
+      <c r="J13" s="2">
+        <v>67.191766435622768</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L13" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="3">
-        <v>4761</v>
-      </c>
-      <c r="D14" s="4">
-        <v>3094650</v>
-      </c>
-      <c r="E14" s="3">
-        <v>650</v>
-      </c>
-      <c r="F14" s="3">
-        <v>68.843100189035923</v>
-      </c>
-      <c r="G14" s="3">
-        <v>69.039277462717919</v>
-      </c>
-      <c r="H14" s="3">
-        <v>82.062591892459565</v>
-      </c>
-      <c r="I14" s="3">
-        <v>81.978575929426583</v>
-      </c>
-      <c r="J14" s="3">
-        <v>67.191766435622768</v>
-      </c>
-      <c r="K14" s="3" t="s">
+      <c r="C14" s="2">
+        <v>2917</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1910635</v>
+      </c>
+      <c r="E14" s="2">
+        <v>655</v>
+      </c>
+      <c r="F14" s="2">
+        <v>68.935207404868009</v>
+      </c>
+      <c r="G14" s="2">
+        <v>68.910524511484397</v>
+      </c>
+      <c r="H14" s="2">
+        <v>81.693520740486804</v>
+      </c>
+      <c r="I14" s="2">
+        <v>81.453548165923891</v>
+      </c>
+      <c r="J14" s="2">
+        <v>66.712375728488169</v>
+      </c>
+      <c r="K14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="L14" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="3">
-        <v>2739</v>
-      </c>
-      <c r="D15" s="4">
-        <v>1763916</v>
-      </c>
-      <c r="E15" s="3">
-        <v>644</v>
-      </c>
-      <c r="F15" s="3">
-        <v>69.091274187659735</v>
-      </c>
-      <c r="G15" s="3">
-        <v>69.572471705001831</v>
-      </c>
-      <c r="H15" s="3">
-        <v>82.438846294267975</v>
-      </c>
-      <c r="I15" s="3">
-        <v>82.219788243884622</v>
-      </c>
-      <c r="J15" s="3">
-        <v>67.46987951807229</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L15" s="3" t="s">
+      <c r="C15" s="2">
+        <v>4635</v>
+      </c>
+      <c r="D15" s="3">
+        <v>3022020</v>
+      </c>
+      <c r="E15" s="2">
+        <v>652</v>
+      </c>
+      <c r="F15" s="2">
+        <v>68.874865156418551</v>
+      </c>
+      <c r="G15" s="2">
+        <v>69.186407766990285</v>
+      </c>
+      <c r="H15" s="2">
+        <v>80.949298813376487</v>
+      </c>
+      <c r="I15" s="2">
+        <v>81.877022653721681</v>
+      </c>
+      <c r="J15" s="2">
+        <v>66.364617044228694</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L15" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="2">
         <v>1635</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="3">
         <v>1043130</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="2">
         <v>638</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="2">
         <v>69.581651376146795</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="2">
         <v>69.768807339449538</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="2">
         <v>83.853211009174316</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="2">
         <v>82.629969418960243</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J16" s="2">
         <v>69.480122324159026</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="K16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L16" s="3" t="s">
+      <c r="L16" s="2" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:L16" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="11">
+      <filters>
+        <filter val="Large (2000-5000)"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L15">
+      <sortCondition descending="1" ref="J1:J16"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B24622E-3185-C54F-9F29-BE9428FD0BE9}">
   <dimension ref="A3:C79"/>
   <sheetViews>
@@ -5589,7 +6709,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B3" t="s">
@@ -5597,234 +6717,232 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="2"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9">
         <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="10">
+      <c r="B32" s="2">
         <v>70.293506579285278</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="10">
+      <c r="B33" s="2">
         <v>78.039784885002675</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="10">
+      <c r="B34" s="2">
         <v>79.06634791880694</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="12" t="s">
+      <c r="A53" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B53" s="13">
+      <c r="B53" s="11">
         <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="11" t="s">
+      <c r="A54" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B54">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="11" t="s">
+      <c r="A55" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B55">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="11" t="s">
+      <c r="A56" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B56">
         <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="11" t="s">
+      <c r="A57" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B57">
         <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="12" t="s">
+      <c r="A58" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B58" s="13">
+      <c r="B58" s="11">
         <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="11" t="s">
+      <c r="A59" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B59" s="2">
+      <c r="B59">
         <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="11" t="s">
+      <c r="A60" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B60" s="2">
+      <c r="B60">
         <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="11" t="s">
+      <c r="A61" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B61" s="2">
+      <c r="B61">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" s="12" t="s">
+      <c r="A62" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B62" s="13">
+      <c r="B62" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" s="11" t="s">
+      <c r="A63" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B63" s="2">
+      <c r="B63">
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" s="11" t="s">
+      <c r="A64" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B64" s="2">
+      <c r="B64">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="12" t="s">
+      <c r="A65" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B65" s="13"/>
+      <c r="B65" s="11"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="11" t="s">
+      <c r="A66" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B66" s="2"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" s="3" t="s">
+      <c r="A68" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C68" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" s="14" t="s">
+      <c r="A69" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B69" s="15">
+      <c r="B69" s="13">
         <v>8</v>
       </c>
-      <c r="C69" s="17">
+      <c r="C69" s="15">
         <f>B69/$B72</f>
         <v>0.53333333333333333</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" s="14" t="s">
+      <c r="A70" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B70" s="15">
+      <c r="B70" s="13">
         <v>5</v>
       </c>
-      <c r="C70" s="17">
+      <c r="C70" s="15">
         <f>B70/B72</f>
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" s="14" t="s">
+      <c r="A71" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B71" s="15">
+      <c r="B71" s="13">
         <v>2</v>
       </c>
-      <c r="C71" s="17">
+      <c r="C71" s="15">
         <f>B71/B72</f>
         <v>0.13333333333333333</v>
       </c>
@@ -5836,60 +6954,60 @@
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" s="18" t="s">
+      <c r="A74" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B74" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C74" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" s="9" t="s">
+      <c r="A75" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B75" s="10">
+      <c r="B75" s="2">
         <v>4</v>
       </c>
-      <c r="C75" s="17">
+      <c r="C75" s="15">
         <f>B75/B79</f>
         <v>0.26666666666666666</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" s="9" t="s">
+      <c r="A76" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B76" s="10">
+      <c r="B76" s="2">
         <v>4</v>
       </c>
-      <c r="C76" s="17">
+      <c r="C76" s="15">
         <f>B76/B79</f>
         <v>0.26666666666666666</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77" s="9" t="s">
+      <c r="A77" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B77" s="10">
+      <c r="B77" s="2">
         <v>4</v>
       </c>
-      <c r="C77" s="17">
+      <c r="C77" s="15">
         <f>B77/B79</f>
         <v>0.26666666666666666</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" s="9" t="s">
+      <c r="A78" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B78" s="10">
+      <c r="B78" s="2">
         <v>3</v>
       </c>
-      <c r="C78" s="17">
+      <c r="C78" s="15">
         <f>B78/B79</f>
         <v>0.2</v>
       </c>
@@ -5904,1116 +7022,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBD51684-74C4-6049-9734-6FFDEAC5F519}">
-  <dimension ref="A3:G155"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.83203125" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="36.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2">
-        <v>2</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="2">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2">
-        <v>2</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="2">
-        <v>3</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="2">
-        <v>3</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="2">
-        <v>8</v>
-      </c>
-      <c r="C10" s="2">
-        <v>5</v>
-      </c>
-      <c r="D10" s="2">
-        <v>2</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" t="s">
-        <v>71</v>
-      </c>
-      <c r="F27" t="s">
-        <v>69</v>
-      </c>
-      <c r="G27">
-        <f>AVERAGE(B28:B31)</f>
-        <v>73.589745372897255</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B28" s="2">
-        <v>79.876293265000314</v>
-      </c>
-      <c r="C28">
-        <f>(B28-G27)/G29</f>
-        <v>1.0744223735294862</v>
-      </c>
-      <c r="F28" t="s">
-        <v>57</v>
-      </c>
-      <c r="G28">
-        <f>MEDIAN(B28:B31)</f>
-        <v>73.863217578571081</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" s="2">
-        <v>76.721458239474131</v>
-      </c>
-      <c r="C29">
-        <f>(B29-G27)/G29</f>
-        <v>0.53523530386956575</v>
-      </c>
-      <c r="F29" t="s">
-        <v>70</v>
-      </c>
-      <c r="G29">
-        <f>_xlfn.STDEV.S(B28:B31)</f>
-        <v>5.8510954788215157</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B30" s="2">
-        <v>71.004976917668031</v>
-      </c>
-      <c r="C30">
-        <f>(B30-G27)-G29</f>
-        <v>-8.4358639340507402</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B31" s="2">
-        <v>66.756253069446544</v>
-      </c>
-      <c r="C31">
-        <f>(B31-G27)/G29</f>
-        <v>-1.1678996400221215</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="B48" s="19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B49" s="10">
-        <v>79.06634791880694</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B50" s="10">
-        <v>78.039784885002675</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B51" s="10">
-        <v>70.293506579285278</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B55" s="10">
-        <v>72.335747880829842</v>
-      </c>
-      <c r="C55" s="10">
-        <v>71.63686357948653</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B56" s="10">
-        <v>71.421650104450009</v>
-      </c>
-      <c r="C56" s="10">
-        <v>70.720163565513431</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B57" s="10">
-        <v>69.751809063228364</v>
-      </c>
-      <c r="C57" s="10">
-        <v>69.576052095489857</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B58">
-        <f>AVERAGE(B55:B57)</f>
-        <v>71.169735682836077</v>
-      </c>
-      <c r="C58">
-        <f>AVERAGE(C55:C57)</f>
-        <v>70.644359746829934</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B59">
-        <f>MEDIAN(B55:B57)</f>
-        <v>71.421650104450009</v>
-      </c>
-      <c r="C59">
-        <f>MEDIAN(C55:C57)</f>
-        <v>70.720163565513431</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B60">
-        <f>_xlfn.STDEV.S(B55:B57)</f>
-        <v>1.3102597491107419</v>
-      </c>
-      <c r="C60">
-        <f>_xlfn.STDEV.S(C55:C57)</f>
-        <v>1.0324948703690455</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B64" s="10">
-        <f>(B55-B58)/B60</f>
-        <v>0.88990919455865491</v>
-      </c>
-      <c r="C64" s="10">
-        <f>(C55-C58)/C60</f>
-        <v>0.96126756765565713</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B65" s="10">
-        <f>(B56-B58)/B60</f>
-        <v>0.19226296296204154</v>
-      </c>
-      <c r="C65" s="10">
-        <f>(C56-C58)/C60</f>
-        <v>7.3418106819651302E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B66" s="10">
-        <f>(B57-B58)/B60</f>
-        <v>-1.0821721575207073</v>
-      </c>
-      <c r="C66" s="10">
-        <f>(C57-C58)/C60</f>
-        <v>-1.0346856744752946</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A74" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B74" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="C74" s="26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B75" s="10">
-        <v>71.364586622066668</v>
-      </c>
-      <c r="C75" s="10">
-        <v>70.716577175176738</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B76" s="10">
-        <v>72.065867542063245</v>
-      </c>
-      <c r="C76" s="10">
-        <v>71.031296932066297</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B77" s="10">
-        <v>69.854807345723643</v>
-      </c>
-      <c r="C77" s="10">
-        <v>69.838813895073599</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B78" s="10">
-        <v>68.884390916774166</v>
-      </c>
-      <c r="C78" s="10">
-        <v>69.045403247064201</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="B79">
-        <f>AVERAGE(B75:B78)</f>
-        <v>70.542413106656937</v>
-      </c>
-      <c r="C79">
-        <f>AVERAGE(C75:C78)</f>
-        <v>70.158022812345209</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="B80">
-        <f>MEDIAN(B75:B78)</f>
-        <v>70.609696983895162</v>
-      </c>
-      <c r="C80">
-        <f>MEDIAN(C75:C78)</f>
-        <v>70.277695535125162</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="B81">
-        <f>_xlfn.STDEV.S(B75:B78)</f>
-        <v>1.4397594672736904</v>
-      </c>
-      <c r="C81">
-        <f>_xlfn.STDEV.S(C75:C78)</f>
-        <v>0.89710781483695146</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="64" x14ac:dyDescent="0.2">
-      <c r="A85" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B85" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="C85" s="26" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A86" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B86" s="10">
-        <f>(B75-B79)/B81</f>
-        <v>0.57104921627401228</v>
-      </c>
-      <c r="C86" s="10">
-        <f>(C75-C79)/C81</f>
-        <v>0.62261676199203109</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A87" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B87" s="10">
-        <f>(B76-B79)/B81</f>
-        <v>1.058131215689174</v>
-      </c>
-      <c r="C87" s="10">
-        <f>(C76-C79)/C81</f>
-        <v>0.97343274161512605</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B88" s="10">
-        <f>(B77-B79)/B81</f>
-        <v>-0.47758377462544893</v>
-      </c>
-      <c r="C88" s="10">
-        <f>(C77-C79)/C81</f>
-        <v>-0.35582001627042503</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B89" s="10">
-        <f>(B78-B79)/B81</f>
-        <v>-1.151596657337757</v>
-      </c>
-      <c r="C89" s="10">
-        <f>(C78-C79)/C81</f>
-        <v>-1.2402294873367321</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A95" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B95" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C95" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A96" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B96" s="10">
-        <v>88.835926265726002</v>
-      </c>
-      <c r="C96" s="10">
-        <v>86.390517470923953</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A97" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B97" s="10">
-        <v>91.518823869945564</v>
-      </c>
-      <c r="C97" s="10">
-        <v>87.292422908065191</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A98" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B98" s="10">
-        <v>84.68613874124722</v>
-      </c>
-      <c r="C98" s="10">
-        <v>83.763584577383114</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A99" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B99" s="10">
-        <v>81.568470482107614</v>
-      </c>
-      <c r="C99" s="10">
-        <v>81.769715583024052</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A100" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="B100" s="23">
-        <f>AVERAGE(B96:B99)</f>
-        <v>86.652339839756593</v>
-      </c>
-      <c r="C100" s="23">
-        <f>AVERAGE(C96:C99)</f>
-        <v>84.804060134849081</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A101" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="B101" s="23">
-        <f>MEDIAN(B96:B99)</f>
-        <v>86.761032503486604</v>
-      </c>
-      <c r="C101" s="23">
-        <f>MEDIAN(C96:C99)</f>
-        <v>85.077051024153533</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A102" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="B102">
-        <f>_xlfn.STDEV.S(B96:B99)</f>
-        <v>4.4031197614564102</v>
-      </c>
-      <c r="C102">
-        <f>_xlfn.STDEV.S(C96:C99)</f>
-        <v>2.5165209062770177</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B104">
-        <f>(B97-B100)/B102</f>
-        <v>1.1052354452832995</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A107" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B107" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C107" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A108" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B108" s="10">
-        <v>84.252804366493606</v>
-      </c>
-      <c r="C108" s="10">
-        <v>83.301184562791605</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A109" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B109" s="10">
-        <v>89.846559589859751</v>
-      </c>
-      <c r="C109" s="10">
-        <v>86.714148663571478</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A110" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B110" s="10">
-        <v>90.806867036375223</v>
-      </c>
-      <c r="C110" s="10">
-        <v>87.557513377185501</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A111" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B111">
-        <f>AVERAGE(B108:B110)</f>
-        <v>88.302076997576194</v>
-      </c>
-      <c r="C111">
-        <f>AVERAGE(C108:C110)</f>
-        <v>85.857615534516185</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A112" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="B112">
-        <f>MEDIAN(B108:B110)</f>
-        <v>89.846559589859751</v>
-      </c>
-      <c r="C112">
-        <f>MEDIAN(C108:C110)</f>
-        <v>86.714148663571478</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A113" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="B113">
-        <f>_xlfn.STDEV.S(B108:B110)</f>
-        <v>3.5394920862440338</v>
-      </c>
-      <c r="C113">
-        <f>_xlfn.STDEV.S(C108:C110)</f>
-        <v>2.2537347880655489</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A117" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="B117" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="C117" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="D117" s="24" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A118" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B118" s="10">
-        <v>0</v>
-      </c>
-      <c r="C118" s="10">
-        <v>4</v>
-      </c>
-      <c r="D118" s="3">
-        <f>SUM(B118:C118)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A119" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B119" s="10">
-        <v>1</v>
-      </c>
-      <c r="C119" s="10">
-        <v>3</v>
-      </c>
-      <c r="D119" s="3">
-        <f t="shared" ref="D119:D121" si="0">SUM(B119:C119)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A120" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B120" s="10">
-        <v>3</v>
-      </c>
-      <c r="C120" s="10">
-        <v>1</v>
-      </c>
-      <c r="D120" s="3">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A121" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B121" s="10">
-        <v>3</v>
-      </c>
-      <c r="C121" s="10">
-        <v>0</v>
-      </c>
-      <c r="D121" s="3">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B122">
-        <f>SUM(B118:B121)</f>
-        <v>7</v>
-      </c>
-      <c r="C122">
-        <f>SUM(C118:C121)</f>
-        <v>8</v>
-      </c>
-      <c r="D122">
-        <f>SUM(D118:D121)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A124" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="B124" s="3">
-        <v>8</v>
-      </c>
-      <c r="C124" s="17">
-        <f>B124/15</f>
-        <v>0.53333333333333333</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A125" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="B125" s="3">
-        <v>7</v>
-      </c>
-      <c r="C125" s="17">
-        <f>B125/15</f>
-        <v>0.46666666666666667</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A127" s="3"/>
-      <c r="B127" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C127" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A128" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B128" s="17">
-        <v>0</v>
-      </c>
-      <c r="C128" s="17">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A129" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B129" s="17">
-        <f>B119/B122</f>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="C129" s="17">
-        <f>C119/C122</f>
-        <v>0.375</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A130" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B130" s="17">
-        <f>B120/B122</f>
-        <v>0.42857142857142855</v>
-      </c>
-      <c r="C130" s="17">
-        <f>C120/C122</f>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A131" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B131" s="17">
-        <f>B121/B122</f>
-        <v>0.42857142857142855</v>
-      </c>
-      <c r="C131" s="17">
-        <f>C121/C122</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A133" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B133" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C133" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D133" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A134" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B134" s="2">
-        <v>70.698992814221029</v>
-      </c>
-      <c r="C134" s="2">
-        <v>83.587562408787065</v>
-      </c>
-      <c r="D134" s="2">
-        <v>84.462375254967725</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A135" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B135" s="2">
-        <v>76.973340399670292</v>
-      </c>
-      <c r="C135" s="2">
-        <v>86.247788714131488</v>
-      </c>
-      <c r="D135" s="2">
-        <v>89.204042521152999</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A139" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B139" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C139" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A140" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B140" s="10">
-        <v>69.834806378249354</v>
-      </c>
-      <c r="C140" s="10">
-        <v>69.675928632252507</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A141" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B141" s="10">
-        <v>71.368821767748898</v>
-      </c>
-      <c r="C141" s="10">
-        <v>70.718932665586465</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
-        <v>54</v>
-      </c>
-      <c r="B142">
-        <f>AVERAGE(B140:B141)</f>
-        <v>70.601814072999133</v>
-      </c>
-      <c r="C142">
-        <f>AVERAGE(C140:C141)</f>
-        <v>70.197430648919493</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
-        <v>57</v>
-      </c>
-      <c r="B143">
-        <f>MEDIAN(B140:B141)</f>
-        <v>70.601814072999133</v>
-      </c>
-      <c r="C143">
-        <f>MEDIAN(C140:C141)</f>
-        <v>70.197430648919493</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
-        <v>64</v>
-      </c>
-      <c r="B144">
-        <f>_xlfn.STDEV.S(B140:B141)</f>
-        <v>1.0847126843596504</v>
-      </c>
-      <c r="C144">
-        <f>_xlfn.STDEV.S(C140:C141)</f>
-        <v>0.73751522477536124</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A146" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B146" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C146" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A147" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B147" s="10">
-        <f>(B140-B142)/B144</f>
-        <v>-0.70710678118655412</v>
-      </c>
-      <c r="C147" s="10">
-        <f>(C140-C142)/C144</f>
-        <v>-0.70710678118655723</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A148" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B148" s="10">
-        <f>(B141-B142)/B144</f>
-        <v>0.70710678118654102</v>
-      </c>
-      <c r="C148" s="10">
-        <f>(C141-C142)/C144</f>
-        <v>0.70710678118653791</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A151" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B151" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C151" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A152" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B152" s="10">
-        <v>7</v>
-      </c>
-      <c r="C152" s="10">
-        <v>1</v>
-      </c>
-      <c r="D152" s="16">
-        <f>B152/8</f>
-        <v>0.875</v>
-      </c>
-      <c r="E152" s="16">
-        <f>C152/8</f>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A153" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B153" s="10">
-        <v>0</v>
-      </c>
-      <c r="C153" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A154" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B154" s="10">
-        <v>0</v>
-      </c>
-      <c r="C154" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C155" s="25"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="A48:B48" xr:uid="{FBD51684-74C4-6049-9734-6FFDEAC5F519}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A49:B51">
-      <sortCondition descending="1" ref="B48:B51"/>
-    </sortState>
-  </autoFilter>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>